--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3290.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3290.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9905572991712897</v>
+        <v>1.087680697441101</v>
       </c>
       <c r="B1">
-        <v>2.405849341801208</v>
+        <v>1.001729249954224</v>
       </c>
       <c r="C1">
-        <v>3.770799207669205</v>
+        <v>5.356661319732666</v>
       </c>
       <c r="D1">
-        <v>2.955947171246651</v>
+        <v>1.898563742637634</v>
       </c>
       <c r="E1">
-        <v>1.207108895098542</v>
+        <v>1.10181450843811</v>
       </c>
     </row>
   </sheetData>
